--- a/DZ/5 пункт/data_5.xlsx
+++ b/DZ/5 пункт/data_5.xlsx
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.035</v>
+        <v>0.026</v>
       </c>
       <c r="C2">
-        <v>7.061</v>
+        <v>3.921</v>
       </c>
       <c r="D2">
-        <v>2085.526</v>
+        <v>2052.088</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.13</v>
+        <v>0.142</v>
       </c>
       <c r="C3">
-        <v>20.605</v>
+        <v>17.883</v>
       </c>
       <c r="D3">
-        <v>2820.31</v>
+        <v>2943.839</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>20.105</v>
       </c>
       <c r="C4">
-        <v>15.087</v>
+        <v>15.15</v>
       </c>
       <c r="D4">
-        <v>2998.345</v>
+        <v>3000.29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>21.73</v>
+        <v>21.745</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>484.621</v>
+        <v>409.7</v>
       </c>
     </row>
   </sheetData>
